--- a/database/industries/dode/shekarbon/cost/yearly.xlsx
+++ b/database/industries/dode/shekarbon/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\dode\shekarbon\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA85A8E2-65E3-42BD-86C7-6C3FA60E21E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +378,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -389,7 +390,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -436,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,17 +657,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +682,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +699,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -681,7 +716,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +731,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +748,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -730,7 +765,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,7 +780,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -782,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -797,7 +832,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -834,7 +869,7 @@
         <v>7494051</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -871,7 +906,7 @@
         <v>82492</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -908,7 +943,7 @@
         <v>830476</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -945,7 +980,7 @@
         <v>8407019</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>8407019</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>-39087</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>8367932</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1202,7 @@
         <v>162032</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1239,7 @@
         <v>-835001</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>7694963</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>7694963</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1330,7 +1365,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1345,7 +1380,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1360,7 +1395,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1412,7 +1447,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1564,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
@@ -1603,7 +1638,7 @@
         <v>245716</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1618,7 +1653,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1633,7 +1668,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1648,7 +1683,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1700,7 +1735,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1852,7 @@
         <v>74510</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1926,7 @@
         <v>319234</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1906,7 +1941,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1921,7 +1956,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1936,7 +1971,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1988,7 +2023,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>75622</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>35</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2214,7 @@
         <v>320906</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2194,7 +2229,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2209,7 +2244,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2224,7 +2259,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>38</v>
       </c>
@@ -2261,7 +2296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2276,7 +2311,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -2315,7 +2350,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2428,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>18</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>244044</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2482,7 +2517,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2497,7 +2532,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2512,7 +2547,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -2549,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2564,7 +2599,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2638,7 @@
         <v>30917</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>48121</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2716,7 @@
         <v>481226</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>35</v>
       </c>
@@ -2720,7 +2755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2792,7 @@
         <v>560264</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2772,7 +2807,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2787,7 +2822,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2802,7 +2837,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>41</v>
       </c>
@@ -2839,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2854,7 +2889,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +2928,7 @@
         <v>218638</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +2967,7 @@
         <v>652407</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -2971,7 +3006,7 @@
         <v>6779878</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>18</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>7650923</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3062,7 +3097,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3077,7 +3112,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3092,7 +3127,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>42</v>
       </c>
@@ -3129,7 +3164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3144,7 +3179,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>30</v>
       </c>
@@ -3183,7 +3218,7 @@
         <v>153238</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3222,7 +3257,7 @@
         <v>700528</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -3261,7 +3296,7 @@
         <v>6640285</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>7494051</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3352,7 +3387,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3367,7 +3402,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3382,7 +3417,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>43</v>
       </c>
@@ -3419,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3434,7 +3469,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -3473,7 +3508,7 @@
         <v>96317</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3512,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
@@ -3551,7 +3586,7 @@
         <v>620819</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>35</v>
       </c>
@@ -3590,7 +3625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>18</v>
       </c>
@@ -3627,7 +3662,7 @@
         <v>717136</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3642,7 +3677,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3657,7 +3692,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3672,7 +3707,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>44</v>
       </c>
@@ -3709,7 +3744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3724,7 +3759,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
@@ -3763,7 +3798,7 @@
         <v>129335</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -3802,7 +3837,7 @@
         <v>85930357</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>34</v>
       </c>
@@ -3841,7 +3876,7 @@
         <v>78747505</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3856,7 +3891,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3871,7 +3906,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3886,7 +3921,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>47</v>
       </c>
@@ -3923,7 +3958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3938,7 +3973,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -3977,7 +4012,7 @@
         <v>914631</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4016,7 +4051,7 @@
         <v>114880613</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>90992860</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4070,7 +4105,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4085,7 +4120,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4100,7 +4135,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>48</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4152,7 +4187,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>30</v>
       </c>
@@ -4191,7 +4226,7 @@
         <v>641042</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>32</v>
       </c>
@@ -4230,7 +4265,7 @@
         <v>112282096</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -4269,7 +4304,7 @@
         <v>87808905</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4284,7 +4319,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4299,7 +4334,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4314,7 +4349,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>49</v>
       </c>
@@ -4351,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4366,7 +4401,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4440,7 @@
         <v>402924</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4444,7 +4479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>34</v>
       </c>
@@ -4483,7 +4518,7 @@
         <v>124188638</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4498,7 +4533,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4513,7 +4548,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4528,7 +4563,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>50</v>
       </c>
@@ -4565,7 +4600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4580,7 +4615,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>51</v>
       </c>
@@ -4617,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>52</v>
       </c>
@@ -4654,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>53</v>
       </c>
@@ -4691,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>54</v>
       </c>
@@ -4728,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>55</v>
       </c>
@@ -4765,7 +4800,7 @@
         <v>81395</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>56</v>
       </c>
@@ -4802,7 +4837,7 @@
         <v>185389</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>57</v>
       </c>
@@ -4839,7 +4874,7 @@
         <v>58488</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>58</v>
       </c>
@@ -4876,7 +4911,7 @@
         <v>258466</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>59</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>60</v>
       </c>
@@ -4950,7 +4985,7 @@
         <v>246738</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>18</v>
       </c>

--- a/database/industries/dode/shekarbon/cost/yearly.xlsx
+++ b/database/industries/dode/shekarbon/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC3CEB-B2ED-4764-A9D9-1D78CD5A3E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDAD4C-480F-4FB7-A724-D8FCD6A6BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,7 +762,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7494051</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
         <v>82492</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>830476</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>8407019</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -894,7 +894,7 @@
         <v>8407019</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>-39087</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -960,7 +960,7 @@
         <v>8367932</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -982,7 +982,7 @@
         <v>162032</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>-835001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>7694963</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>7694963</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>245716</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1268,7 +1268,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1278,7 +1278,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1310,7 +1310,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>74510</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>319234</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1436,7 +1436,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1456,7 +1456,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1488,7 +1488,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>75622</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>30</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>320906</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1614,7 +1614,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1624,7 +1624,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1634,7 +1634,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>33</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1666,7 +1666,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>239045</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>244044</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1792,7 +1792,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1802,7 +1802,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1844,7 +1844,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>30917</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>48121</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>481226</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>560264</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1982,7 +1982,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2024,7 +2024,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>218638</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>652407</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>6779878</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>30</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>7650923</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2162,7 +2162,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2204,7 +2204,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>153238</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>700528</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>6640285</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>30</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>7494051</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2342,7 +2342,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2384,7 +2384,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>96317</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>27</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>620819</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>12</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>717136</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2512,7 +2512,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2522,7 +2522,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2532,7 +2532,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>129335</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>85930357</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>29</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>78747505</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2656,7 +2656,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2666,7 +2666,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>42</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2698,7 +2698,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>914631</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>114880613</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>90992860</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2780,7 +2780,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2790,7 +2790,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>43</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>641042</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>27</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>112282096</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>87808905</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2914,7 +2914,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2924,7 +2924,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2934,7 +2934,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2966,7 +2966,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>402924</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>124188638</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3058,7 +3058,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3068,7 +3068,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>45</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3100,7 +3100,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>46</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>47</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>48</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>49</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>50</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>81395</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>51</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>185389</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>52</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>58488</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>53</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>258466</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>54</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>55</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>246738</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>12</v>
       </c>
